--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\python\excel_file_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C96D03-F31A-402A-9960-2FDB5BF1FABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE2DD22-3AE4-4FA3-B04C-FD31273FD15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69EF8EFC-0EAE-433E-8402-37C17F499269}"/>
   </bookViews>
@@ -31,7 +31,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>id2</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>name2</t>
+  </si>
+  <si>
+    <t>acc_no</t>
+  </si>
+  <si>
+    <t>ifsc</t>
+  </si>
+  <si>
+    <t>txnid</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>insert_date</t>
+  </si>
+  <si>
+    <t>update_date</t>
+  </si>
+  <si>
+    <t>6272156</t>
+  </si>
+  <si>
+    <t>R-Payout</t>
+  </si>
+  <si>
+    <t>25 May - 09:23 pm</t>
+  </si>
+  <si>
+    <t>Mode - IMPS</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Transaction Successfull</t>
+  </si>
+  <si>
+    <t>A/C No. - 66666666666666</t>
+  </si>
+  <si>
+    <t>IFSC - SBIN000</t>
+  </si>
+  <si>
+    <t>TxnId - 765456789098765</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -65,9 +135,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A44AE7-D8F5-4FF0-BBCB-2012C5FFD837}">
-  <dimension ref="I1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -397,11 +468,102 @@
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
     <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.109375" customWidth="1"/>
-    <col min="11" max="12" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2">
+        <v>46167.662511574075</v>
+      </c>
+      <c r="N2" s="2">
+        <v>46167.662511574075</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
